--- a/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>Serie</t>
   </si>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6513,10 +6516,10 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>16992</v>
+        <v>16995</v>
       </c>
       <c r="C269">
-        <v>21055</v>
+        <v>21058</v>
       </c>
       <c r="D269">
         <v>-4063</v>
@@ -6536,10 +6539,10 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>12147</v>
+        <v>12148</v>
       </c>
       <c r="C270">
-        <v>19255</v>
+        <v>19256</v>
       </c>
       <c r="D270">
         <v>-7107</v>
@@ -6559,10 +6562,10 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>13281</v>
+        <v>13283</v>
       </c>
       <c r="C271">
-        <v>20141</v>
+        <v>20143</v>
       </c>
       <c r="D271">
         <v>-6860</v>
@@ -6575,6 +6578,29 @@
       </c>
       <c r="G271">
         <v>1074</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272">
+        <v>13180</v>
+      </c>
+      <c r="C272">
+        <v>20505</v>
+      </c>
+      <c r="D272">
+        <v>-7325</v>
+      </c>
+      <c r="E272">
+        <v>4194</v>
+      </c>
+      <c r="F272">
+        <v>3311</v>
+      </c>
+      <c r="G272">
+        <v>884</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>Serie</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6603,6 +6606,20 @@
         <v>884</v>
       </c>
     </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273">
+        <v>13680</v>
+      </c>
+      <c r="C273">
+        <v>19962</v>
+      </c>
+      <c r="D273">
+        <v>-6283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -6542,19 +6542,19 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>12148</v>
+        <v>12071</v>
       </c>
       <c r="C270">
-        <v>19256</v>
+        <v>19129</v>
       </c>
       <c r="D270">
-        <v>-7107</v>
+        <v>-7057</v>
       </c>
       <c r="E270">
         <v>5121</v>
       </c>
       <c r="F270">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="G270">
         <v>1038</v>
@@ -6565,19 +6565,19 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>13283</v>
+        <v>13256</v>
       </c>
       <c r="C271">
-        <v>20143</v>
+        <v>20016</v>
       </c>
       <c r="D271">
-        <v>-6860</v>
+        <v>-6760</v>
       </c>
       <c r="E271">
-        <v>4747</v>
+        <v>4750</v>
       </c>
       <c r="F271">
-        <v>3673</v>
+        <v>3676</v>
       </c>
       <c r="G271">
         <v>1074</v>
@@ -6588,36 +6588,45 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>13180</v>
+        <v>13129</v>
       </c>
       <c r="C272">
-        <v>20505</v>
+        <v>20354</v>
       </c>
       <c r="D272">
-        <v>-7325</v>
+        <v>-7225</v>
       </c>
       <c r="E272">
         <v>4194</v>
       </c>
       <c r="F272">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="G272">
         <v>884</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>278</v>
       </c>
       <c r="B273">
-        <v>13680</v>
+        <v>13635</v>
       </c>
       <c r="C273">
-        <v>19962</v>
+        <v>19817</v>
       </c>
       <c r="D273">
-        <v>-6283</v>
+        <v>-6183</v>
+      </c>
+      <c r="E273">
+        <v>4270</v>
+      </c>
+      <c r="F273">
+        <v>3360</v>
+      </c>
+      <c r="G273">
+        <v>910</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>Serie</t>
   </si>
@@ -851,6 +851,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6629,6 +6632,20 @@
         <v>910</v>
       </c>
     </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274">
+        <v>13924</v>
+      </c>
+      <c r="C274">
+        <v>19621</v>
+      </c>
+      <c r="D274">
+        <v>-5698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -6568,10 +6568,10 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>13256</v>
+        <v>13260</v>
       </c>
       <c r="C271">
-        <v>20016</v>
+        <v>20020</v>
       </c>
       <c r="D271">
         <v>-6760</v>
@@ -6591,10 +6591,10 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>13129</v>
+        <v>13124</v>
       </c>
       <c r="C272">
-        <v>20354</v>
+        <v>20349</v>
       </c>
       <c r="D272">
         <v>-7225</v>
@@ -6614,19 +6614,19 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>13635</v>
+        <v>13633</v>
       </c>
       <c r="C273">
-        <v>19817</v>
+        <v>19816</v>
       </c>
       <c r="D273">
         <v>-6183</v>
       </c>
       <c r="E273">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="F273">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="G273">
         <v>910</v>
@@ -6637,13 +6637,22 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>13924</v>
+        <v>13918</v>
       </c>
       <c r="C274">
-        <v>19621</v>
+        <v>19616</v>
       </c>
       <c r="D274">
         <v>-5698</v>
+      </c>
+      <c r="E274">
+        <v>4572</v>
+      </c>
+      <c r="F274">
+        <v>3519</v>
+      </c>
+      <c r="G274">
+        <v>1054</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/Derivados posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t>Serie</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G274"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6655,6 +6658,20 @@
         <v>1054</v>
       </c>
     </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275">
+        <v>14354</v>
+      </c>
+      <c r="C275">
+        <v>17640</v>
+      </c>
+      <c r="D275">
+        <v>-3286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
